--- a/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 11 05.xlsx
+++ b/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 11 05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F8FE0-AAF5-A640-83BB-CAA8E6D2C556}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B94B9-9785-A743-B516-999D2BA8B936}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="31">
   <si>
     <t>Injury</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>Complete across sex and cause?</t>
   </si>
+  <si>
+    <t>With absolute temperature runs</t>
+  </si>
 </sst>
 </file>
 
@@ -198,6 +201,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,25 +213,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -535,12 +527,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C04E9F-441B-3545-BD1F-8BC23CAF93DD}">
-  <dimension ref="A1:AS102"/>
+  <dimension ref="A1:AX102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="AL4" sqref="AL4"/>
+      <selection pane="bottomLeft" activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,66 +577,76 @@
     <col min="43" max="43" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="5.5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AG1" s="9" t="s">
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AG1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-    </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AU1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+    </row>
+    <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,8 +770,20 @@
       <c r="AS2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,7 +814,7 @@
       <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -818,7 +832,7 @@
       <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="6"/>
+      <c r="S3" s="7"/>
       <c r="U3" s="2" t="s">
         <v>25</v>
       </c>
@@ -893,8 +907,17 @@
         <f>IF(AND(AJ3=1,AL3=1,AP3=1,AR3=1)=TRUE,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV3">
+        <v>85</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -925,7 +948,7 @@
       <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="8"/>
       <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
@@ -941,7 +964,7 @@
       <c r="R4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="8"/>
       <c r="U4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1012,8 +1035,17 @@
         <f t="shared" ref="AS4:AS12" si="0">IF(AND(AJ4=1,AL4=1,AP4=1,AR4=1)=TRUE,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV4">
+        <v>85</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1076,7 @@
       <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="8"/>
       <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1092,7 @@
       <c r="R5" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="8"/>
       <c r="U5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1133,8 +1165,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV5">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1165,7 +1206,7 @@
       <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="8"/>
       <c r="N6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1222,7 @@
       <c r="R6" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="8"/>
       <c r="U6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1252,8 +1293,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV6">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1334,7 @@
       <c r="K7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="8"/>
       <c r="N7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1350,7 @@
       <c r="R7" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="8"/>
       <c r="U7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1373,8 +1423,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>65</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1464,7 @@
       <c r="K8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="8"/>
       <c r="N8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1480,7 @@
       <c r="R8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="8"/>
       <c r="U8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1494,8 +1553,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>65</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1594,7 @@
       <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="8"/>
       <c r="N9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1610,7 @@
       <c r="R9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="8"/>
       <c r="U9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1608,8 +1676,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV9">
+        <v>55</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1717,7 @@
       <c r="K10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="8"/>
       <c r="N10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1733,7 @@
       <c r="R10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="8"/>
       <c r="U10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1721,8 +1798,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV10">
+        <v>55</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1839,7 @@
       <c r="K11" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="8"/>
       <c r="N11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1855,7 @@
       <c r="R11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="8"/>
       <c r="U11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1840,8 +1926,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV11">
+        <v>45</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1872,7 +1967,7 @@
       <c r="K12" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="8"/>
       <c r="N12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1983,7 @@
       <c r="R12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="5"/>
       <c r="U12" s="2" t="s">
         <v>25</v>
@@ -1964,8 +2059,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>45</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +2100,7 @@
       <c r="K13" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -2014,7 +2118,7 @@
       <c r="R13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="7"/>
       <c r="U13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2153,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>35</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2194,7 @@
       <c r="K14" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="8"/>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2097,7 +2210,7 @@
       <c r="R14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="8"/>
       <c r="U14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2243,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>35</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2162,7 +2284,7 @@
       <c r="K15" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="8"/>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2178,7 +2300,7 @@
       <c r="R15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="7"/>
+      <c r="S15" s="8"/>
       <c r="U15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2209,8 +2331,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>25</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2241,7 +2372,7 @@
       <c r="K16" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="8"/>
       <c r="N16" s="3" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2388,7 @@
       <c r="R16" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="7"/>
+      <c r="S16" s="8"/>
       <c r="U16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2288,8 +2419,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AU16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV16">
+        <v>25</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2460,7 @@
       <c r="K17" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="8"/>
       <c r="N17" s="3" t="s">
         <v>10</v>
       </c>
@@ -2336,7 +2476,7 @@
       <c r="R17" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="8"/>
       <c r="U17" s="2" t="s">
         <v>25</v>
       </c>
@@ -2367,8 +2507,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AU17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV17">
+        <v>15</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2399,7 +2548,7 @@
       <c r="K18" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="8"/>
       <c r="N18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2415,7 +2564,7 @@
       <c r="R18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="7"/>
+      <c r="S18" s="8"/>
       <c r="U18" s="2" t="s">
         <v>25</v>
       </c>
@@ -2446,8 +2595,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AU18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <v>15</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2636,7 @@
       <c r="K19" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="8"/>
       <c r="N19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2652,7 @@
       <c r="R19" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="8"/>
       <c r="U19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2685,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AU19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>5</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2726,7 @@
       <c r="K20" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="8"/>
       <c r="N20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2742,7 @@
       <c r="R20" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="7"/>
+      <c r="S20" s="8"/>
       <c r="U20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2610,8 +2777,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AU20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2818,7 @@
       <c r="K21" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="8"/>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2658,7 +2834,7 @@
       <c r="R21" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="7"/>
+      <c r="S21" s="8"/>
       <c r="U21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2693,8 +2869,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AU21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2910,7 @@
       <c r="K22" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="8"/>
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +2926,7 @@
       <c r="R22" t="s">
         <v>7</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="8"/>
       <c r="U22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2776,8 +2961,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AU22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -2808,7 +3002,7 @@
       <c r="K23" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -2826,9 +3020,18 @@
       <c r="R23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="6"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S23" s="7"/>
+      <c r="AU23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV23">
+        <v>85</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2859,7 +3062,7 @@
       <c r="K24" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="8"/>
       <c r="N24" s="4" t="s">
         <v>12</v>
       </c>
@@ -2875,9 +3078,18 @@
       <c r="R24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S24" s="8"/>
+      <c r="AU24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV24">
+        <v>85</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +3120,7 @@
       <c r="K25" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="8"/>
       <c r="N25" s="4" t="s">
         <v>12</v>
       </c>
@@ -2924,9 +3136,18 @@
       <c r="R25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S25" s="8"/>
+      <c r="AU25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV25">
+        <v>75</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -2957,7 +3178,7 @@
       <c r="K26" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="8"/>
       <c r="N26" s="4" t="s">
         <v>12</v>
       </c>
@@ -2973,9 +3194,18 @@
       <c r="R26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S26" s="8"/>
+      <c r="AU26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV26">
+        <v>75</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -3006,7 +3236,7 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="8"/>
       <c r="N27" s="4" t="s">
         <v>12</v>
       </c>
@@ -3022,9 +3252,18 @@
       <c r="R27" t="s">
         <v>7</v>
       </c>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S27" s="8"/>
+      <c r="AU27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV27">
+        <v>65</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3055,7 +3294,7 @@
       <c r="K28" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="8"/>
       <c r="N28" s="4" t="s">
         <v>12</v>
       </c>
@@ -3071,9 +3310,18 @@
       <c r="R28" t="s">
         <v>7</v>
       </c>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S28" s="8"/>
+      <c r="AU28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV28">
+        <v>65</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -3104,7 +3352,7 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="8"/>
       <c r="N29" s="4" t="s">
         <v>12</v>
       </c>
@@ -3120,9 +3368,18 @@
       <c r="R29" t="s">
         <v>7</v>
       </c>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S29" s="8"/>
+      <c r="AU29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV29">
+        <v>55</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -3153,7 +3410,7 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="8"/>
       <c r="N30" s="4" t="s">
         <v>12</v>
       </c>
@@ -3169,9 +3426,18 @@
       <c r="R30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S30" s="8"/>
+      <c r="AU30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV30">
+        <v>55</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -3202,7 +3468,7 @@
       <c r="K31" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="8"/>
       <c r="N31" s="4" t="s">
         <v>12</v>
       </c>
@@ -3218,9 +3484,18 @@
       <c r="R31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="7"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S31" s="8"/>
+      <c r="AU31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV31">
+        <v>45</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +3526,7 @@
       <c r="K32" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="8"/>
       <c r="N32" s="4" t="s">
         <v>12</v>
       </c>
@@ -3267,9 +3542,18 @@
       <c r="R32" t="s">
         <v>7</v>
       </c>
-      <c r="S32" s="7"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="8"/>
+      <c r="AU32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV32">
+        <v>45</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
@@ -3300,7 +3584,7 @@
       <c r="K33" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="7">
         <v>0.3</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -3318,9 +3602,18 @@
       <c r="R33" t="s">
         <v>7</v>
       </c>
-      <c r="S33" s="6"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="7"/>
+      <c r="AU33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV33">
+        <v>35</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -3351,7 +3644,7 @@
       <c r="K34" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="8"/>
       <c r="N34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3367,9 +3660,18 @@
       <c r="R34" t="s">
         <v>7</v>
       </c>
-      <c r="S34" s="7"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S34" s="8"/>
+      <c r="AU34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV34">
+        <v>35</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -3400,7 +3702,7 @@
       <c r="K35" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="8"/>
       <c r="N35" s="3" t="s">
         <v>15</v>
       </c>
@@ -3416,9 +3718,18 @@
       <c r="R35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="7"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="8"/>
+      <c r="AU35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV35">
+        <v>25</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -3449,7 +3760,7 @@
       <c r="K36" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="8"/>
       <c r="N36" s="3" t="s">
         <v>15</v>
       </c>
@@ -3465,9 +3776,18 @@
       <c r="R36" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="7"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S36" s="8"/>
+      <c r="AU36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV36">
+        <v>25</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -3498,7 +3818,7 @@
       <c r="K37" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="8"/>
       <c r="N37" s="3" t="s">
         <v>15</v>
       </c>
@@ -3514,9 +3834,18 @@
       <c r="R37" t="s">
         <v>7</v>
       </c>
-      <c r="S37" s="7"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S37" s="8"/>
+      <c r="AU37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV37">
+        <v>15</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
@@ -3547,7 +3876,7 @@
       <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="8"/>
       <c r="N38" s="3" t="s">
         <v>15</v>
       </c>
@@ -3563,9 +3892,18 @@
       <c r="R38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S38" s="7"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S38" s="8"/>
+      <c r="AU38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV38">
+        <v>15</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -3596,7 +3934,7 @@
       <c r="K39" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="8"/>
       <c r="N39" s="3" t="s">
         <v>15</v>
       </c>
@@ -3612,9 +3950,18 @@
       <c r="R39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S39" s="7"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S39" s="8"/>
+      <c r="AU39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV39">
+        <v>5</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -3645,7 +3992,7 @@
       <c r="K40" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="8"/>
       <c r="N40" s="3" t="s">
         <v>15</v>
       </c>
@@ -3661,9 +4008,18 @@
       <c r="R40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S40" s="7"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S40" s="8"/>
+      <c r="AU40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -3694,7 +4050,7 @@
       <c r="K41" t="s">
         <v>7</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="8"/>
       <c r="N41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3710,9 +4066,18 @@
       <c r="R41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="7"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="8"/>
+      <c r="AU41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -3743,7 +4108,7 @@
       <c r="K42" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="7"/>
+      <c r="L42" s="8"/>
       <c r="N42" s="3" t="s">
         <v>15</v>
       </c>
@@ -3759,9 +4124,18 @@
       <c r="R42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="7"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S42" s="8"/>
+      <c r="AU42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -3792,7 +4166,7 @@
       <c r="K43" t="s">
         <v>7</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N43" s="4" t="s">
@@ -3810,9 +4184,18 @@
       <c r="R43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S43" s="6"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="7"/>
+      <c r="AU43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV43">
+        <v>85</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -3843,7 +4226,7 @@
       <c r="K44" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="7"/>
+      <c r="L44" s="8"/>
       <c r="N44" s="4" t="s">
         <v>16</v>
       </c>
@@ -3859,9 +4242,18 @@
       <c r="R44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S44" s="7"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S44" s="8"/>
+      <c r="AU44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV44">
+        <v>85</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +4284,7 @@
       <c r="K45" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="7"/>
+      <c r="L45" s="8"/>
       <c r="N45" s="4" t="s">
         <v>16</v>
       </c>
@@ -3908,9 +4300,18 @@
       <c r="R45" t="s">
         <v>7</v>
       </c>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="8"/>
+      <c r="AU45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV45">
+        <v>75</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -3941,7 +4342,7 @@
       <c r="K46" t="s">
         <v>7</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="L46" s="8"/>
       <c r="N46" s="4" t="s">
         <v>16</v>
       </c>
@@ -3957,9 +4358,18 @@
       <c r="R46" t="s">
         <v>7</v>
       </c>
-      <c r="S46" s="7"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="8"/>
+      <c r="AU46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV46">
+        <v>75</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3990,7 +4400,7 @@
       <c r="K47" t="s">
         <v>7</v>
       </c>
-      <c r="L47" s="7"/>
+      <c r="L47" s="8"/>
       <c r="N47" s="4" t="s">
         <v>16</v>
       </c>
@@ -4006,9 +4416,18 @@
       <c r="R47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S47" s="7"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S47" s="8"/>
+      <c r="AU47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV47">
+        <v>65</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -4039,7 +4458,7 @@
       <c r="K48" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="7"/>
+      <c r="L48" s="8"/>
       <c r="N48" s="4" t="s">
         <v>16</v>
       </c>
@@ -4055,9 +4474,18 @@
       <c r="R48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S48" s="7"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="8"/>
+      <c r="AU48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV48">
+        <v>65</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -4088,7 +4516,7 @@
       <c r="K49" t="s">
         <v>7</v>
       </c>
-      <c r="L49" s="7"/>
+      <c r="L49" s="8"/>
       <c r="N49" s="4" t="s">
         <v>16</v>
       </c>
@@ -4104,9 +4532,18 @@
       <c r="R49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S49" s="7"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S49" s="8"/>
+      <c r="AU49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV49">
+        <v>55</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -4137,7 +4574,7 @@
       <c r="K50" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="8"/>
       <c r="N50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4153,9 +4590,18 @@
       <c r="R50" t="s">
         <v>7</v>
       </c>
-      <c r="S50" s="7"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S50" s="8"/>
+      <c r="AU50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV50">
+        <v>55</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4632,7 @@
       <c r="K51" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="8"/>
       <c r="N51" s="4" t="s">
         <v>16</v>
       </c>
@@ -4202,9 +4648,18 @@
       <c r="R51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S51" s="7"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S51" s="8"/>
+      <c r="AU51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV51">
+        <v>45</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
@@ -4235,7 +4690,7 @@
       <c r="K52" t="s">
         <v>7</v>
       </c>
-      <c r="L52" s="7"/>
+      <c r="L52" s="8"/>
       <c r="N52" s="4" t="s">
         <v>16</v>
       </c>
@@ -4251,9 +4706,18 @@
       <c r="R52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S52" s="7"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S52" s="8"/>
+      <c r="AU52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV52">
+        <v>45</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -4269,8 +4733,17 @@
       <c r="E53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV53">
+        <v>35</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
@@ -4286,8 +4759,17 @@
       <c r="E54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV54">
+        <v>35</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
@@ -4303,8 +4785,17 @@
       <c r="E55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV55">
+        <v>25</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
@@ -4320,8 +4811,17 @@
       <c r="E56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV56">
+        <v>25</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>12</v>
       </c>
@@ -4337,8 +4837,17 @@
       <c r="E57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV57">
+        <v>15</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
@@ -4354,8 +4863,17 @@
       <c r="E58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV58">
+        <v>15</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
@@ -4371,8 +4889,17 @@
       <c r="E59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -4388,8 +4915,17 @@
       <c r="E60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -4405,8 +4941,17 @@
       <c r="E61" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
@@ -4422,8 +4967,17 @@
       <c r="E62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -4439,8 +4993,17 @@
       <c r="E63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AU63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV63">
+        <v>85</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>15</v>
       </c>
@@ -4456,8 +5019,17 @@
       <c r="E64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV64">
+        <v>85</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -4473,8 +5045,17 @@
       <c r="E65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV65">
+        <v>75</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>15</v>
       </c>
@@ -4490,8 +5071,17 @@
       <c r="E66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV66">
+        <v>75</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -4507,8 +5097,17 @@
       <c r="E67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV67">
+        <v>65</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -4524,8 +5123,17 @@
       <c r="E68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV68">
+        <v>65</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -4541,8 +5149,17 @@
       <c r="E69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV69">
+        <v>55</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -4558,8 +5175,17 @@
       <c r="E70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV70">
+        <v>55</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
@@ -4575,8 +5201,17 @@
       <c r="E71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV71">
+        <v>45</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>15</v>
       </c>
@@ -4592,8 +5227,17 @@
       <c r="E72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV72">
+        <v>45</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>15</v>
       </c>
@@ -4609,8 +5253,17 @@
       <c r="E73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV73">
+        <v>35</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4626,8 +5279,17 @@
       <c r="E74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV74">
+        <v>35</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
@@ -4643,8 +5305,17 @@
       <c r="E75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV75">
+        <v>25</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -4660,8 +5331,17 @@
       <c r="E76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV76">
+        <v>25</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>15</v>
       </c>
@@ -4677,8 +5357,17 @@
       <c r="E77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV77">
+        <v>15</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>15</v>
       </c>
@@ -4694,8 +5383,17 @@
       <c r="E78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV78">
+        <v>15</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
@@ -4711,8 +5409,17 @@
       <c r="E79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
@@ -4728,8 +5435,17 @@
       <c r="E80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
@@ -4745,8 +5461,17 @@
       <c r="E81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
@@ -4762,8 +5487,17 @@
       <c r="E82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>16</v>
       </c>
@@ -4779,8 +5513,17 @@
       <c r="E83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV83">
+        <v>85</v>
+      </c>
+      <c r="AW83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
@@ -4796,8 +5539,17 @@
       <c r="E84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV84">
+        <v>85</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>16</v>
       </c>
@@ -4813,8 +5565,17 @@
       <c r="E85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV85">
+        <v>75</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>16</v>
       </c>
@@ -4830,8 +5591,17 @@
       <c r="E86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV86">
+        <v>75</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>16</v>
       </c>
@@ -4847,8 +5617,17 @@
       <c r="E87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV87">
+        <v>65</v>
+      </c>
+      <c r="AW87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>16</v>
       </c>
@@ -4864,8 +5643,17 @@
       <c r="E88" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV88">
+        <v>65</v>
+      </c>
+      <c r="AW88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>16</v>
       </c>
@@ -4881,8 +5669,17 @@
       <c r="E89" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV89">
+        <v>55</v>
+      </c>
+      <c r="AW89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>16</v>
       </c>
@@ -4898,8 +5695,17 @@
       <c r="E90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV90">
+        <v>55</v>
+      </c>
+      <c r="AW90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>16</v>
       </c>
@@ -4915,8 +5721,17 @@
       <c r="E91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV91">
+        <v>45</v>
+      </c>
+      <c r="AW91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>16</v>
       </c>
@@ -4932,8 +5747,17 @@
       <c r="E92" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV92">
+        <v>45</v>
+      </c>
+      <c r="AW92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>16</v>
       </c>
@@ -4949,8 +5773,17 @@
       <c r="E93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV93">
+        <v>35</v>
+      </c>
+      <c r="AW93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>16</v>
       </c>
@@ -4966,8 +5799,17 @@
       <c r="E94" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV94">
+        <v>35</v>
+      </c>
+      <c r="AW94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5825,17 @@
       <c r="E95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV95">
+        <v>25</v>
+      </c>
+      <c r="AW95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>16</v>
       </c>
@@ -5000,8 +5851,17 @@
       <c r="E96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV96">
+        <v>25</v>
+      </c>
+      <c r="AW96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>16</v>
       </c>
@@ -5017,8 +5877,17 @@
       <c r="E97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV97">
+        <v>15</v>
+      </c>
+      <c r="AW97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>16</v>
       </c>
@@ -5034,8 +5903,17 @@
       <c r="E98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV98">
+        <v>15</v>
+      </c>
+      <c r="AW98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>16</v>
       </c>
@@ -5051,8 +5929,17 @@
       <c r="E99" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>16</v>
       </c>
@@ -5068,8 +5955,17 @@
       <c r="E100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>16</v>
       </c>
@@ -5085,8 +5981,17 @@
       <c r="E101" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AU101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>16</v>
       </c>
@@ -5102,10 +6007,27 @@
       <c r="E102" t="s">
         <v>7</v>
       </c>
+      <c r="AU102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV102">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="AE1:AE102" xr:uid="{CAEE2C2D-7486-9A46-AAA4-C6FF8FC51A81}"/>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="L33:L42"/>
+    <mergeCell ref="L43:L52"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L3:L12"/>
+    <mergeCell ref="L13:L22"/>
+    <mergeCell ref="L23:L32"/>
     <mergeCell ref="AG1:AS1"/>
     <mergeCell ref="U1:AE1"/>
     <mergeCell ref="S43:S52"/>
@@ -5114,13 +6036,6 @@
     <mergeCell ref="S13:S22"/>
     <mergeCell ref="S23:S32"/>
     <mergeCell ref="S33:S42"/>
-    <mergeCell ref="L33:L42"/>
-    <mergeCell ref="L43:L52"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L3:L12"/>
-    <mergeCell ref="L13:L22"/>
-    <mergeCell ref="L23:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
